--- a/NFLStats/LB/LB_aggregate.xlsx
+++ b/NFLStats/LB/LB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -780,6 +780,438 @@
         <v>-18.66666666666666</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>Eric Wilson</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>2.888888888888889</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>71.55555555555556</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>37.11111111111111</v>
+      </c>
+      <c r="F14" s="2" t="n">
+        <v>34.44444444444444</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>Eric Wilson</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>Eric Wilson</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>-2.222222222222222</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-31.55555555555556</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-16.11111111111111</v>
+      </c>
+      <c r="F16" s="2" t="n">
+        <v>-15.44444444444444</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Jadeveon Clowney</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>19.66666666666667</v>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>9.333333333333334</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Jadeveon Clowney</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>20.66666666666667</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>18.33333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Jadeveon Clowney</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>8.999999999999998</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Jihad Ward</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.8888888888888888</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>17.55555555555556</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="F20" s="2" t="n">
+        <v>11.22222222222222</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Jihad Ward</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>25.66666666666667</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F21" s="2" t="n">
+        <v>9.333333333333334</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Jihad Ward</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.7777777777777779</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>8.111111111111111</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" s="2" t="n">
+        <v>-1.888888888888888</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Kamu Grugier-Hill</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>53</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>36.33333333333334</v>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>16.66666666666667</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Kamu Grugier-Hill</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>1.888888888888889</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>35.33333333333334</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>22.44444444444444</v>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>12.88888888888889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Kamu Grugier-Hill</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>0.8888888888888886</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>-17.66666666666666</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>-13.88888888888889</v>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>-3.777777777777777</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Mack Wilson</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>54.33333333333334</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>35.66666666666666</v>
+      </c>
+      <c r="F26" s="2" t="n">
+        <v>18.66666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Mack Wilson</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>49.33333333333334</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>27.66666666666667</v>
+      </c>
+      <c r="F27" s="2" t="n">
+        <v>21.66666666666667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Mack Wilson</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>-5</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>-7.999999999999996</v>
+      </c>
+      <c r="F28" s="2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Oren Burks</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>22.66666666666667</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>7.666666666666667</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>Oren Burks</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>41.66666666666666</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>21.33333333333333</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>20.33333333333333</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="inlineStr">
+        <is>
+          <t>Oren Burks</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>6.333333333333332</v>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>12.66666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFLStats/LB/LB_aggregate.xlsx
+++ b/NFLStats/LB/LB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1212,6 +1212,222 @@
         <v>12.66666666666666</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Christian Rozeboom</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D32" s="2" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>Christian Rozeboom</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D33" s="2" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>12.33333333333333</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Christian Rozeboom</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D34" s="2" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>-31.33333333333333</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>-18.66666666666666</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="3" t="inlineStr">
+        <is>
+          <t>Duke Riley</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D35" s="3" t="n">
+        <v>30.11111111111111</v>
+      </c>
+      <c r="E35" s="3" t="n">
+        <v>17.66666666666667</v>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>12.44444444444444</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Duke Riley</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" s="3" t="n">
+        <v>32.66666666666666</v>
+      </c>
+      <c r="E36" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>12.66666666666667</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="inlineStr">
+        <is>
+          <t>Duke Riley</t>
+        </is>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="n">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="D37" s="3" t="n">
+        <v>2.555555555555554</v>
+      </c>
+      <c r="E37" s="3" t="n">
+        <v>2.333333333333332</v>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>0.2222222222222232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Troy Reeder</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>76.66666666666667</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45.66666666666666</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Troy Reeder</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>14.33333333333333</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>12.33333333333333</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Troy Reeder</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>-50</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>-31.33333333333333</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>-18.66666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFLStats/LB/LB_aggregate.xlsx
+++ b/NFLStats/LB/LB_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1932,6 +1932,366 @@
         <v>63.66666666666666</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D62" s="2" t="n">
+        <v>38.66666666666666</v>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>10.33333333333333</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="D63" s="2" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="F63" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Bud Dupree</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>-0.3333333333333333</v>
+      </c>
+      <c r="D64" s="2" t="n">
+        <v>-10.33333333333333</v>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>-12</v>
+      </c>
+      <c r="F64" s="2" t="n">
+        <v>1.666666666666666</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B65" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C65" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D65" s="3" t="n">
+        <v>37.33333333333334</v>
+      </c>
+      <c r="E65" s="3" t="n">
+        <v>25.33333333333333</v>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B66" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C66" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" s="3" t="n">
+        <v>128.3333333333333</v>
+      </c>
+      <c r="E66" s="3" t="n">
+        <v>75</v>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>53.33333333333334</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
+        <is>
+          <t>Robert Spillane</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C67" s="3" t="n">
+        <v>3.666666666666667</v>
+      </c>
+      <c r="D67" s="3" t="n">
+        <v>91</v>
+      </c>
+      <c r="E67" s="3" t="n">
+        <v>49.66666666666667</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>41.33333333333334</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>57.33333333333334</v>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="F68" s="2" t="n">
+        <v>15.33333333333333</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>5.666666666666667</v>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>17.66666666666667</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>T.J. Watt</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>-1.666666666666666</v>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>-1.333333333333336</v>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>-3.666666666666664</v>
+      </c>
+      <c r="F70" s="2" t="n">
+        <v>2.333333333333334</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E71" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C72" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" s="3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="E72" s="3" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="3" t="inlineStr">
+        <is>
+          <t>Luke Rhodes</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="3" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="E73" s="3" t="n">
+        <v>0.3333333333333335</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>16.33333333333333</v>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>10.66666666666667</v>
+      </c>
+      <c r="F75" s="2" t="n">
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>jalenreeves-maybin</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>-0.6666666666666666</v>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>-26.66666666666667</v>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>-19.33333333333334</v>
+      </c>
+      <c r="F76" s="2" t="n">
+        <v>-7.333333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
